--- a/data/06 impact country numbers per year per country.xlsx
+++ b/data/06 impact country numbers per year per country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>project_year</t>
   </si>
@@ -371,9 +371,15 @@
     <t>Guinea</t>
   </si>
   <si>
+    <t>Iran</t>
+  </si>
+  <si>
     <t>Kazakhstan</t>
   </si>
   <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
     <t>Massachusetts</t>
   </si>
   <si>
@@ -401,6 +407,9 @@
     <t>Romania</t>
   </si>
   <si>
+    <t>Syria</t>
+  </si>
+  <si>
     <t>Turkey</t>
   </si>
   <si>
@@ -408,6 +417,27 @@
   </si>
   <si>
     <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Serbia</t>
   </si>
 </sst>
 </file>
@@ -3098,10 +3128,10 @@
         <v>111</v>
       </c>
       <c r="B215" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="C215" t="n">
-        <v> 8</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="216">
@@ -3109,10 +3139,10 @@
         <v>111</v>
       </c>
       <c r="B216" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C216" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="217">
@@ -3120,7 +3150,7 @@
         <v>111</v>
       </c>
       <c r="B217" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="C217" t="n">
         <v> 1</v>
@@ -3131,10 +3161,10 @@
         <v>111</v>
       </c>
       <c r="B218" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C218" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="219">
@@ -3142,10 +3172,10 @@
         <v>111</v>
       </c>
       <c r="B219" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C219" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="220">
@@ -3153,10 +3183,10 @@
         <v>111</v>
       </c>
       <c r="B220" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="C220" t="n">
-        <v>32</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="221">
@@ -3164,10 +3194,10 @@
         <v>111</v>
       </c>
       <c r="B221" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C221" t="n">
-        <v> 1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="222">
@@ -3175,10 +3205,10 @@
         <v>111</v>
       </c>
       <c r="B222" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C222" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="223">
@@ -3186,7 +3216,7 @@
         <v>111</v>
       </c>
       <c r="B223" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C223" t="n">
         <v> 1</v>
@@ -3197,10 +3227,10 @@
         <v>111</v>
       </c>
       <c r="B224" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C224" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="225">
@@ -3208,10 +3238,10 @@
         <v>111</v>
       </c>
       <c r="B225" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C225" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="226">
@@ -3219,10 +3249,10 @@
         <v>111</v>
       </c>
       <c r="B226" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C226" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="227">
@@ -3230,10 +3260,10 @@
         <v>111</v>
       </c>
       <c r="B227" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C227" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="228">
@@ -3241,10 +3271,10 @@
         <v>111</v>
       </c>
       <c r="B228" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="C228" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="229">
@@ -3252,10 +3282,10 @@
         <v>111</v>
       </c>
       <c r="B229" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="C229" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="230">
@@ -3263,7 +3293,7 @@
         <v>111</v>
       </c>
       <c r="B230" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C230" t="n">
         <v> 1</v>
@@ -3274,10 +3304,10 @@
         <v>111</v>
       </c>
       <c r="B231" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C231" t="n">
-        <v>11</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="232">
@@ -3285,7 +3315,7 @@
         <v>111</v>
       </c>
       <c r="B232" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C232" t="n">
         <v> 1</v>
@@ -3296,10 +3326,10 @@
         <v>111</v>
       </c>
       <c r="B233" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C233" t="n">
-        <v> 2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234">
@@ -3307,10 +3337,10 @@
         <v>111</v>
       </c>
       <c r="B234" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C234" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="235">
@@ -3318,10 +3348,10 @@
         <v>111</v>
       </c>
       <c r="B235" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="C235" t="n">
-        <v>40</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="236">
@@ -3329,10 +3359,10 @@
         <v>111</v>
       </c>
       <c r="B236" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C236" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="237">
@@ -3340,10 +3370,10 @@
         <v>111</v>
       </c>
       <c r="B237" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C237" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="238">
@@ -3351,10 +3381,10 @@
         <v>111</v>
       </c>
       <c r="B238" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C238" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="239">
@@ -3362,10 +3392,10 @@
         <v>111</v>
       </c>
       <c r="B239" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C239" t="n">
-        <v> 1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240">
@@ -3373,10 +3403,10 @@
         <v>111</v>
       </c>
       <c r="B240" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="C240" t="n">
-        <v> 8</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="241">
@@ -3384,10 +3414,10 @@
         <v>111</v>
       </c>
       <c r="B241" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="C241" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="242">
@@ -3395,10 +3425,10 @@
         <v>111</v>
       </c>
       <c r="B242" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="C242" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="243">
@@ -3409,7 +3439,7 @@
         <v>128</v>
       </c>
       <c r="C243" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="244">
@@ -3417,10 +3447,10 @@
         <v>111</v>
       </c>
       <c r="B244" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="C244" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="245">
@@ -3428,7 +3458,7 @@
         <v>111</v>
       </c>
       <c r="B245" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="C245" t="n">
         <v> 1</v>
@@ -3439,10 +3469,10 @@
         <v>111</v>
       </c>
       <c r="B246" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C246" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="247">
@@ -3450,10 +3480,10 @@
         <v>111</v>
       </c>
       <c r="B247" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C247" t="n">
-        <v>20</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="248">
@@ -3461,10 +3491,10 @@
         <v>111</v>
       </c>
       <c r="B248" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C248" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="249">
@@ -3472,10 +3502,10 @@
         <v>111</v>
       </c>
       <c r="B249" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C249" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250">
@@ -3483,10 +3513,10 @@
         <v>111</v>
       </c>
       <c r="B250" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C250" t="n">
-        <v> 4</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="251">
@@ -3494,10 +3524,10 @@
         <v>111</v>
       </c>
       <c r="B251" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C251" t="n">
-        <v> 1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252">
@@ -3505,10 +3535,10 @@
         <v>111</v>
       </c>
       <c r="B252" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C252" t="n">
-        <v> 2</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="253">
@@ -3516,10 +3546,10 @@
         <v>111</v>
       </c>
       <c r="B253" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="C253" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="254">
@@ -3527,10 +3557,10 @@
         <v>111</v>
       </c>
       <c r="B254" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C254" t="n">
-        <v> 8</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="255">
@@ -3538,10 +3568,10 @@
         <v>111</v>
       </c>
       <c r="B255" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="C255" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="256">
@@ -3549,10 +3579,10 @@
         <v>111</v>
       </c>
       <c r="B256" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C256" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="257">
@@ -3560,10 +3590,10 @@
         <v>111</v>
       </c>
       <c r="B257" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="C257" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="258">
@@ -3571,10 +3601,10 @@
         <v>111</v>
       </c>
       <c r="B258" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C258" t="n">
-        <v>31</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="259">
@@ -3582,7 +3612,7 @@
         <v>111</v>
       </c>
       <c r="B259" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="C259" t="n">
         <v> 1</v>
@@ -3593,7 +3623,7 @@
         <v>111</v>
       </c>
       <c r="B260" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="C260" t="n">
         <v> 1</v>
@@ -3604,10 +3634,10 @@
         <v>111</v>
       </c>
       <c r="B261" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C261" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="262">
@@ -3615,10 +3645,10 @@
         <v>111</v>
       </c>
       <c r="B262" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C262" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="263">
@@ -3626,10 +3656,10 @@
         <v>111</v>
       </c>
       <c r="B263" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C263" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="264">
@@ -3637,10 +3667,10 @@
         <v>111</v>
       </c>
       <c r="B264" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C264" t="n">
-        <v> 1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="265">
@@ -3648,10 +3678,10 @@
         <v>111</v>
       </c>
       <c r="B265" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="C265" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="266">
@@ -3659,10 +3689,648 @@
         <v>111</v>
       </c>
       <c r="B266" t="s">
+        <v>59</v>
+      </c>
+      <c r="C266" t="n">
+        <v> 4</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>111</v>
+      </c>
+      <c r="B267" t="s">
+        <v>81</v>
+      </c>
+      <c r="C267" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>111</v>
+      </c>
+      <c r="B268" t="s">
+        <v>60</v>
+      </c>
+      <c r="C268" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>111</v>
+      </c>
+      <c r="B269" t="s">
         <v>61</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C269" t="n">
         <v> 5</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>135</v>
+      </c>
+      <c r="B270" t="s">
+        <v>4</v>
+      </c>
+      <c r="C270" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>135</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="n">
+        <v> 6</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>135</v>
+      </c>
+      <c r="B272" t="s">
+        <v>136</v>
+      </c>
+      <c r="C272" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>135</v>
+      </c>
+      <c r="B273" t="s">
+        <v>6</v>
+      </c>
+      <c r="C273" t="n">
+        <v> 7</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>135</v>
+      </c>
+      <c r="B274" t="s">
+        <v>115</v>
+      </c>
+      <c r="C274" t="n">
+        <v> 3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>135</v>
+      </c>
+      <c r="B275" t="s">
+        <v>63</v>
+      </c>
+      <c r="C275" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>135</v>
+      </c>
+      <c r="B276" t="s">
+        <v>137</v>
+      </c>
+      <c r="C276" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>135</v>
+      </c>
+      <c r="B277" t="s">
+        <v>85</v>
+      </c>
+      <c r="C277" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>135</v>
+      </c>
+      <c r="B278" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>135</v>
+      </c>
+      <c r="B279" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>135</v>
+      </c>
+      <c r="B280" t="s">
+        <v>14</v>
+      </c>
+      <c r="C280" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>135</v>
+      </c>
+      <c r="B281" t="s">
+        <v>16</v>
+      </c>
+      <c r="C281" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>135</v>
+      </c>
+      <c r="B282" t="s">
+        <v>138</v>
+      </c>
+      <c r="C282" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>135</v>
+      </c>
+      <c r="B283" t="s">
+        <v>88</v>
+      </c>
+      <c r="C283" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>135</v>
+      </c>
+      <c r="B284" t="s">
+        <v>19</v>
+      </c>
+      <c r="C284" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>135</v>
+      </c>
+      <c r="B285" t="s">
+        <v>20</v>
+      </c>
+      <c r="C285" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>135</v>
+      </c>
+      <c r="B286" t="s">
+        <v>91</v>
+      </c>
+      <c r="C286" t="n">
+        <v> 3</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>135</v>
+      </c>
+      <c r="B287" t="s">
+        <v>21</v>
+      </c>
+      <c r="C287" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>135</v>
+      </c>
+      <c r="B288" t="s">
+        <v>118</v>
+      </c>
+      <c r="C288" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>135</v>
+      </c>
+      <c r="B289" t="s">
+        <v>22</v>
+      </c>
+      <c r="C289" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>135</v>
+      </c>
+      <c r="B290" t="s">
+        <v>23</v>
+      </c>
+      <c r="C290" t="n">
+        <v> 9</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>135</v>
+      </c>
+      <c r="B291" t="s">
+        <v>95</v>
+      </c>
+      <c r="C291" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>135</v>
+      </c>
+      <c r="B292" t="s">
+        <v>28</v>
+      </c>
+      <c r="C292" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>135</v>
+      </c>
+      <c r="B293" t="s">
+        <v>31</v>
+      </c>
+      <c r="C293" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>135</v>
+      </c>
+      <c r="B294" t="s">
+        <v>68</v>
+      </c>
+      <c r="C294" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>135</v>
+      </c>
+      <c r="B295" t="s">
+        <v>69</v>
+      </c>
+      <c r="C295" t="n">
+        <v> 3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>135</v>
+      </c>
+      <c r="B296" t="s">
+        <v>34</v>
+      </c>
+      <c r="C296" t="n">
+        <v> 3</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>135</v>
+      </c>
+      <c r="B297" t="s">
+        <v>35</v>
+      </c>
+      <c r="C297" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>135</v>
+      </c>
+      <c r="B298" t="s">
+        <v>139</v>
+      </c>
+      <c r="C298" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>135</v>
+      </c>
+      <c r="B299" t="s">
+        <v>39</v>
+      </c>
+      <c r="C299" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>135</v>
+      </c>
+      <c r="B300" t="s">
+        <v>70</v>
+      </c>
+      <c r="C300" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>135</v>
+      </c>
+      <c r="B301" t="s">
+        <v>140</v>
+      </c>
+      <c r="C301" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>135</v>
+      </c>
+      <c r="B302" t="s">
+        <v>71</v>
+      </c>
+      <c r="C302" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>135</v>
+      </c>
+      <c r="B303" t="s">
+        <v>40</v>
+      </c>
+      <c r="C303" t="n">
+        <v> 5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>135</v>
+      </c>
+      <c r="B304" t="s">
+        <v>98</v>
+      </c>
+      <c r="C304" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>135</v>
+      </c>
+      <c r="B305" t="s">
+        <v>41</v>
+      </c>
+      <c r="C305" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>135</v>
+      </c>
+      <c r="B306" t="s">
+        <v>42</v>
+      </c>
+      <c r="C306" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>135</v>
+      </c>
+      <c r="B307" t="s">
+        <v>46</v>
+      </c>
+      <c r="C307" t="n">
+        <v> 7</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>135</v>
+      </c>
+      <c r="B308" t="s">
+        <v>47</v>
+      </c>
+      <c r="C308" t="n">
+        <v> 5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>135</v>
+      </c>
+      <c r="B309" t="s">
+        <v>141</v>
+      </c>
+      <c r="C309" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>135</v>
+      </c>
+      <c r="B310" t="s">
+        <v>49</v>
+      </c>
+      <c r="C310" t="n">
+        <v> 4</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>135</v>
+      </c>
+      <c r="B311" t="s">
+        <v>50</v>
+      </c>
+      <c r="C311" t="n">
+        <v> 3</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>135</v>
+      </c>
+      <c r="B312" t="s">
+        <v>51</v>
+      </c>
+      <c r="C312" t="n">
+        <v> 8</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>135</v>
+      </c>
+      <c r="B313" t="s">
+        <v>52</v>
+      </c>
+      <c r="C313" t="n">
+        <v> 4</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>135</v>
+      </c>
+      <c r="B314" t="s">
+        <v>53</v>
+      </c>
+      <c r="C314" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>135</v>
+      </c>
+      <c r="B315" t="s">
+        <v>108</v>
+      </c>
+      <c r="C315" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>135</v>
+      </c>
+      <c r="B316" t="s">
+        <v>54</v>
+      </c>
+      <c r="C316" t="n">
+        <v> 8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>135</v>
+      </c>
+      <c r="B317" t="s">
+        <v>55</v>
+      </c>
+      <c r="C317" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>135</v>
+      </c>
+      <c r="B318" t="s">
+        <v>132</v>
+      </c>
+      <c r="C318" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>135</v>
+      </c>
+      <c r="B319" t="s">
+        <v>56</v>
+      </c>
+      <c r="C319" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>135</v>
+      </c>
+      <c r="B320" t="s">
+        <v>80</v>
+      </c>
+      <c r="C320" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>135</v>
+      </c>
+      <c r="B321" t="s">
+        <v>58</v>
+      </c>
+      <c r="C321" t="n">
+        <v> 8</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>135</v>
+      </c>
+      <c r="B322" t="s">
+        <v>59</v>
+      </c>
+      <c r="C322" t="n">
+        <v> 5</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>135</v>
+      </c>
+      <c r="B323" t="s">
+        <v>60</v>
+      </c>
+      <c r="C323" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>135</v>
+      </c>
+      <c r="B324" t="s">
+        <v>61</v>
+      </c>
+      <c r="C324" t="n">
+        <v> 9</v>
       </c>
     </row>
   </sheetData>

--- a/data/06 impact country numbers per year per country.xlsx
+++ b/data/06 impact country numbers per year per country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>project_year</t>
   </si>
@@ -26,6 +26,9 @@
     <t>2011</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -35,9 +38,6 @@
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>Beirut,Lebanon</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
@@ -65,10 +65,7 @@
     <t>China</t>
   </si>
   <si>
-    <t>Congo, Democratic Republic of the</t>
-  </si>
-  <si>
-    <t>East Timor</t>
+    <t>Congo, the Democratic Republic of the</t>
   </si>
   <si>
     <t>Egypt</t>
@@ -95,19 +92,19 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>Kenia</t>
-  </si>
-  <si>
     <t>Kenya</t>
   </si>
   <si>
-    <t>Korea, South</t>
+    <t>Korea, Republic of</t>
   </si>
   <si>
     <t>Kyrgyzstan</t>
   </si>
   <si>
-    <t>Laos</t>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
   </si>
   <si>
     <t>Lesotho</t>
@@ -143,10 +140,7 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>paleastinian</t>
-  </si>
-  <si>
-    <t>Palestinian Territory</t>
+    <t>Palestine, State of</t>
   </si>
   <si>
     <t>Papua New Guinea</t>
@@ -158,7 +152,7 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Sierra Leon</t>
+    <t>Sierra Leone</t>
   </si>
   <si>
     <t>Singapore</t>
@@ -176,22 +170,22 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzania, United Republic of</t>
   </si>
   <si>
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Uganda</t>
   </si>
   <si>
-    <t>Uganda; Kenya</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
-    <t>Vietnam</t>
+    <t>Viet Nam</t>
   </si>
   <si>
     <t>Zambia</t>
@@ -206,21 +200,12 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>Congo, The Democratic Republic of The</t>
-  </si>
-  <si>
     <t>Iran, Islamic Republic of</t>
   </si>
   <si>
     <t>Korea, Democratic People's Republic of</t>
   </si>
   <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -230,27 +215,21 @@
     <t>Namibia</t>
   </si>
   <si>
+    <t>Niger</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
-    <t>Palestinian Territory, Occupied</t>
-  </si>
-  <si>
     <t>Senegal</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
     <t>Solomon Islands</t>
   </si>
   <si>
     <t>Sudan</t>
   </si>
   <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t>Tunisia</t>
   </si>
   <si>
@@ -263,30 +242,21 @@
     <t>2013</t>
   </si>
   <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Bulawayo Zimbabwe</t>
+    <t>Bolivia, Plurinational State of</t>
   </si>
   <si>
     <t>Burkina Faso</t>
   </si>
   <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>Congo</t>
   </si>
   <si>
-    <t>Congo, Democratic Republic of the (Zaire)</t>
-  </si>
-  <si>
-    <t>Environs of Giza area, Egypt</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
@@ -296,127 +266,70 @@
     <t>Iceland</t>
   </si>
   <si>
-    <t>Ivory Coast (Cote D`Ivoire)</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
-    <t>KISII, KENYA</t>
-  </si>
-  <si>
     <t>Maldives</t>
   </si>
   <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
     <t>Netherlands</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Palestinian Authority</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Rongo, Kenya</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Timor-Leste (East Timor)</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kuala Lumpur</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Metro Manila</t>
-  </si>
-  <si>
-    <t>Nairobi</t>
-  </si>
-  <si>
-    <t>New South Wales</t>
-  </si>
-  <si>
-    <t>Noord Holland</t>
-  </si>
-  <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Punjab</t>
-  </si>
-  <si>
-    <t>Queensland</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
-    <t>Syria</t>
+    <t>Syrian Arab Republic</t>
   </si>
   <si>
     <t>Turkey</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Uttar Pradesh</t>
   </si>
   <si>
     <t>2015</t>
@@ -799,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v> 3</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="4">
@@ -810,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v> 4</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="5">
@@ -821,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +855,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="17">
@@ -953,7 +866,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v> 1</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="18">
@@ -964,7 +877,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v> 6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -975,7 +888,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -986,7 +899,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -997,7 +910,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="22">
@@ -1008,7 +921,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="23">
@@ -1030,7 +943,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v> 1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1041,7 +954,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="26">
@@ -1052,7 +965,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>38</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="27">
@@ -1063,7 +976,7 @@
         <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v> 9</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="28">
@@ -1085,7 +998,7 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="30">
@@ -1096,7 +1009,7 @@
         <v>32</v>
       </c>
       <c r="C30" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="31">
@@ -1118,7 +1031,7 @@
         <v>34</v>
       </c>
       <c r="C32" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="33">
@@ -1151,7 +1064,7 @@
         <v>37</v>
       </c>
       <c r="C35" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="36">
@@ -1162,7 +1075,7 @@
         <v>38</v>
       </c>
       <c r="C36" t="n">
-        <v> 3</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="37">
@@ -1173,7 +1086,7 @@
         <v>39</v>
       </c>
       <c r="C37" t="n">
-        <v> 2</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="38">
@@ -1184,7 +1097,7 @@
         <v>40</v>
       </c>
       <c r="C38" t="n">
-        <v> 7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
@@ -1195,7 +1108,7 @@
         <v>41</v>
       </c>
       <c r="C39" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -1206,7 +1119,7 @@
         <v>42</v>
       </c>
       <c r="C40" t="n">
-        <v>16</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="41">
@@ -1228,7 +1141,7 @@
         <v>44</v>
       </c>
       <c r="C42" t="n">
-        <v> 7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -1239,7 +1152,7 @@
         <v>45</v>
       </c>
       <c r="C43" t="n">
-        <v> 1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -1250,7 +1163,7 @@
         <v>46</v>
       </c>
       <c r="C44" t="n">
-        <v>16</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="45">
@@ -1261,7 +1174,7 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1283,7 +1196,7 @@
         <v>49</v>
       </c>
       <c r="C47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1294,7 +1207,7 @@
         <v>50</v>
       </c>
       <c r="C48" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="49">
@@ -1305,7 +1218,7 @@
         <v>51</v>
       </c>
       <c r="C49" t="n">
-        <v>12</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="50">
@@ -1316,7 +1229,7 @@
         <v>52</v>
       </c>
       <c r="C50" t="n">
-        <v> 2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -1327,7 +1240,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="52">
@@ -1338,7 +1251,7 @@
         <v>54</v>
       </c>
       <c r="C52" t="n">
-        <v>14</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="53">
@@ -1349,7 +1262,7 @@
         <v>55</v>
       </c>
       <c r="C53" t="n">
-        <v> 2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
@@ -1360,7 +1273,7 @@
         <v>56</v>
       </c>
       <c r="C54" t="n">
-        <v>26</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="55">
@@ -1371,7 +1284,7 @@
         <v>57</v>
       </c>
       <c r="C55" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="56">
@@ -1382,7 +1295,7 @@
         <v>58</v>
       </c>
       <c r="C56" t="n">
-        <v> 4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -1393,59 +1306,59 @@
         <v>59</v>
       </c>
       <c r="C57" t="n">
-        <v> 2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>11</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C60" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C61" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C62" t="n">
         <v> 1</v>
@@ -1453,43 +1366,43 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C63" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C64" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C65" t="n">
-        <v> 2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C66" t="n">
         <v> 2</v>
@@ -1497,21 +1410,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C67" t="n">
-        <v>13</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C68" t="n">
         <v> 4</v>
@@ -1519,21 +1432,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C69" t="n">
-        <v> 3</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C70" t="n">
         <v> 4</v>
@@ -1541,373 +1454,373 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C71" t="n">
-        <v> 7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C72" t="n">
-        <v> 3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" t="s">
         <v>62</v>
       </c>
-      <c r="B74" t="s">
-        <v>22</v>
-      </c>
       <c r="C74" t="n">
-        <v>27</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B75" t="s">
         <v>23</v>
       </c>
       <c r="C75" t="n">
-        <v> 5</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C76" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C77" t="n">
-        <v> 2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C78" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" t="n">
-        <v>32</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C80" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C81" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C82" t="n">
-        <v> 3</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C83" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B84" t="s">
         <v>33</v>
       </c>
       <c r="C84" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B85" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C85" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C86" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C87" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C88" t="n">
-        <v> 1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C89" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B90" t="s">
         <v>40</v>
       </c>
       <c r="C90" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C91" t="n">
-        <v>21</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C92" t="n">
-        <v> 2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B93" t="s">
         <v>42</v>
       </c>
       <c r="C93" t="n">
-        <v>10</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C94" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C95" t="n">
-        <v> 2</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C96" t="n">
-        <v> 7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C97" t="n">
-        <v>12</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C98" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C99" t="n">
-        <v> 3</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C100" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B101" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C101" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C102" t="n">
-        <v> 2</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C103" t="n">
-        <v> 7</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C104" t="n">
         <v> 3</v>
@@ -1915,131 +1828,131 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C105" t="n">
-        <v> 3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B106" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C106" t="n">
-        <v>14</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B107" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C107" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C108" t="n">
-        <v> 1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B109" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C109" t="n">
-        <v>32</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C110" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B111" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C111" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C112" t="n">
-        <v> 4</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B113" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C113" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="C114" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B115" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C115" t="n">
-        <v> 7</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C116" t="n">
         <v> 5</v>
@@ -2047,32 +1960,32 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C117" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C118" t="n">
-        <v> 5</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B119" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C119" t="n">
         <v> 1</v>
@@ -2080,21 +1993,21 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B120" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="C120" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B121" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C121" t="n">
         <v> 1</v>
@@ -2102,230 +2015,230 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B122" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C122" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C123" t="n">
-        <v> 3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C124" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C125" t="n">
-        <v>22</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C126" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B127" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="C127" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B128" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="C128" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B129" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C129" t="n">
-        <v> 9</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>75</v>
+      </c>
+      <c r="B130" t="s">
         <v>82</v>
       </c>
-      <c r="B130" t="s">
-        <v>19</v>
-      </c>
       <c r="C130" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B131" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="C131" t="n">
-        <v> 1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C132" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B133" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C133" t="n">
-        <v> 1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B134" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C134" t="n">
-        <v> 2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B135" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C135" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B136" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C136" t="n">
-        <v>13</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B137" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C137" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C138" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B139" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C139" t="n">
-        <v>10</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B140" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C140" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B141" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C141" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B142" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C142" t="n">
         <v> 1</v>
@@ -2333,32 +2246,32 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B143" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C143" t="n">
-        <v> 4</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B144" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C144" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B145" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="C145" t="n">
         <v> 1</v>
@@ -2366,21 +2279,21 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B146" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C146" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C147" t="n">
         <v> 1</v>
@@ -2388,10 +2301,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B148" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C148" t="n">
         <v> 1</v>
@@ -2399,109 +2312,109 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B149" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C149" t="n">
-        <v> 3</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B150" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C150" t="n">
-        <v>13</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B151" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C151" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B152" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C152" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C153" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B154" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C154" t="n">
-        <v> 1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B155" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C155" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B156" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C156" t="n">
-        <v> 3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B157" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C157" t="n">
-        <v> 8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B158" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C158" t="n">
         <v> 1</v>
@@ -2509,21 +2422,21 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B159" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C159" t="n">
-        <v> 2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B160" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C160" t="n">
         <v> 1</v>
@@ -2531,21 +2444,21 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B161" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C161" t="n">
-        <v>32</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B162" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C162" t="n">
         <v> 1</v>
@@ -2553,109 +2466,109 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B163" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C163" t="n">
-        <v>19</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B164" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C164" t="n">
-        <v>11</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B165" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C165" t="n">
-        <v>16</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B166" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="C166" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B167" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C167" t="n">
-        <v> 1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B168" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C168" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B169" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C169" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B170" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C170" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B171" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C171" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B172" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C172" t="n">
         <v> 1</v>
@@ -2663,32 +2576,32 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B173" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C173" t="n">
-        <v> 4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B174" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C174" t="n">
-        <v>22</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B175" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C175" t="n">
         <v> 1</v>
@@ -2696,43 +2609,43 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B176" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C176" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B177" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C177" t="n">
-        <v> 4</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B178" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C178" t="n">
-        <v> 2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B179" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C179" t="n">
         <v> 1</v>
@@ -2740,65 +2653,65 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B180" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C180" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B181" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C181" t="n">
-        <v>25</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B182" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C182" t="n">
-        <v> 2</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B183" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C183" t="n">
-        <v> 1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B184" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="C184" t="n">
-        <v> 2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B185" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C185" t="n">
         <v> 2</v>
@@ -2806,252 +2719,252 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B186" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C186" t="n">
-        <v>73</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B187" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C187" t="n">
-        <v> 2</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B188" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C188" t="n">
-        <v> 6</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B189" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C189" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B190" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="C190" t="n">
-        <v> 3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B191" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C191" t="n">
-        <v> 6</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B192" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C192" t="n">
-        <v>17</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B193" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C193" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B194" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C194" t="n">
-        <v> 1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B195" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="C195" t="n">
-        <v> 4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C196" t="n">
-        <v> 8</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B197" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="C197" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C198" t="n">
-        <v>10</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B199" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C199" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B200" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C200" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C201" t="n">
-        <v>12</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C202" t="n">
-        <v>10</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C203" t="n">
-        <v> 3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B204" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C204" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B205" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="C205" t="n">
-        <v> 1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B206" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="C206" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B207" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="C207" t="n">
-        <v> 4</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B208" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C208" t="n">
         <v> 2</v>
@@ -3059,10 +2972,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B209" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C209" t="n">
         <v> 3</v>
@@ -3070,153 +2983,153 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B210" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C210" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B211" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C211" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B212" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C212" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B213" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C213" t="n">
-        <v>34</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B214" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C214" t="n">
-        <v> 8</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B215" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="C215" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B216" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C216" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B217" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C217" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B218" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="C218" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B219" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="C219" t="n">
-        <v> 3</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B220" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="C220" t="n">
-        <v> 1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B221" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C221" t="n">
-        <v>32</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B222" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C222" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B223" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C223" t="n">
         <v> 1</v>
@@ -3224,65 +3137,65 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B224" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C224" t="n">
-        <v> 3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B225" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C225" t="n">
-        <v> 1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B226" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C226" t="n">
-        <v> 1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B227" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C227" t="n">
-        <v> 7</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B228" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C228" t="n">
-        <v> 8</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B229" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C229" t="n">
         <v> 1</v>
@@ -3290,32 +3203,32 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="C230" t="n">
-        <v> 1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B231" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C231" t="n">
-        <v> 8</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B232" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="C232" t="n">
         <v> 1</v>
@@ -3323,65 +3236,65 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B233" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C233" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B234" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C234" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B235" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="C235" t="n">
-        <v> 2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B236" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C236" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B237" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C237" t="n">
-        <v>40</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B238" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C238" t="n">
         <v> 1</v>
@@ -3389,76 +3302,76 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B239" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C239" t="n">
-        <v>17</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B240" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="C240" t="n">
-        <v> 4</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B241" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C241" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B242" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C242" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B243" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C243" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B244" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="C244" t="n">
-        <v> 1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B245" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C245" t="n">
         <v> 1</v>
@@ -3466,109 +3379,109 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B246" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C246" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B247" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C247" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B248" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C248" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B249" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C249" t="n">
-        <v>20</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B250" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C250" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B251" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C251" t="n">
-        <v>12</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B252" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="C252" t="n">
-        <v> 4</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B253" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C253" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B254" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="C254" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B255" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C255" t="n">
         <v> 1</v>
@@ -3576,43 +3489,43 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B256" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="C256" t="n">
-        <v> 2</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B257" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C257" t="n">
-        <v> 8</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B258" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C258" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B259" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C259" t="n">
         <v> 1</v>
@@ -3620,10 +3533,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B260" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="C260" t="n">
         <v> 1</v>
@@ -3631,21 +3544,21 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B261" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C261" t="n">
-        <v>31</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B262" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="C262" t="n">
         <v> 1</v>
@@ -3653,54 +3566,54 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B263" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C263" t="n">
-        <v> 1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B264" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C264" t="n">
-        <v>19</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B265" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C265" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B266" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C266" t="n">
-        <v> 4</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B267" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C267" t="n">
         <v> 1</v>
@@ -3708,98 +3621,98 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B268" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C268" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B269" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C269" t="n">
-        <v> 5</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B270" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C270" t="n">
-        <v> 2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B271" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C271" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B272" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="C272" t="n">
-        <v> 1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B273" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C273" t="n">
-        <v> 7</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B274" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C274" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B275" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C275" t="n">
-        <v> 1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B276" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="C276" t="n">
         <v> 1</v>
@@ -3807,43 +3720,43 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B277" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C277" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B278" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C278" t="n">
-        <v> 2</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B279" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C279" t="n">
-        <v>10</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B280" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C280" t="n">
         <v> 1</v>
@@ -3851,21 +3764,21 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B281" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C281" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B282" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C282" t="n">
         <v> 1</v>
@@ -3873,21 +3786,21 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B283" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C283" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B284" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C284" t="n">
         <v> 1</v>
@@ -3895,120 +3808,120 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B285" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C285" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B286" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C286" t="n">
-        <v> 3</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B287" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C287" t="n">
-        <v>11</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B288" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="C288" t="n">
-        <v> 1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B289" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C289" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B290" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C290" t="n">
-        <v> 9</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B291" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C291" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B292" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="C292" t="n">
-        <v>18</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B293" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C293" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B294" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C294" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B295" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C295" t="n">
         <v> 3</v>
@@ -4016,43 +3929,43 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B296" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C296" t="n">
-        <v> 3</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B297" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C297" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B298" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="C298" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B299" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C299" t="n">
         <v> 1</v>
@@ -4060,21 +3973,21 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B300" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C300" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B301" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="C301" t="n">
         <v> 1</v>
@@ -4082,10 +3995,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B302" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C302" t="n">
         <v> 1</v>
@@ -4093,21 +4006,21 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B303" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C303" t="n">
-        <v> 5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B304" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C304" t="n">
         <v> 2</v>
@@ -4115,221 +4028,34 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B305" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C305" t="n">
-        <v>37</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B306" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C306" t="n">
-        <v>14</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B307" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C307" t="n">
-        <v> 7</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s">
-        <v>135</v>
-      </c>
-      <c r="B308" t="s">
-        <v>47</v>
-      </c>
-      <c r="C308" t="n">
-        <v> 5</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="s">
-        <v>135</v>
-      </c>
-      <c r="B309" t="s">
-        <v>141</v>
-      </c>
-      <c r="C309" t="n">
-        <v> 1</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s">
-        <v>135</v>
-      </c>
-      <c r="B310" t="s">
-        <v>49</v>
-      </c>
-      <c r="C310" t="n">
-        <v> 4</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s">
-        <v>135</v>
-      </c>
-      <c r="B311" t="s">
-        <v>50</v>
-      </c>
-      <c r="C311" t="n">
-        <v> 3</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s">
-        <v>135</v>
-      </c>
-      <c r="B312" t="s">
-        <v>51</v>
-      </c>
-      <c r="C312" t="n">
-        <v> 8</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="s">
-        <v>135</v>
-      </c>
-      <c r="B313" t="s">
-        <v>52</v>
-      </c>
-      <c r="C313" t="n">
-        <v> 4</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="s">
-        <v>135</v>
-      </c>
-      <c r="B314" t="s">
-        <v>53</v>
-      </c>
-      <c r="C314" t="n">
-        <v> 1</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="s">
-        <v>135</v>
-      </c>
-      <c r="B315" t="s">
-        <v>108</v>
-      </c>
-      <c r="C315" t="n">
-        <v> 1</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s">
-        <v>135</v>
-      </c>
-      <c r="B316" t="s">
-        <v>54</v>
-      </c>
-      <c r="C316" t="n">
-        <v> 8</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s">
-        <v>135</v>
-      </c>
-      <c r="B317" t="s">
-        <v>55</v>
-      </c>
-      <c r="C317" t="n">
-        <v> 1</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s">
-        <v>135</v>
-      </c>
-      <c r="B318" t="s">
-        <v>132</v>
-      </c>
-      <c r="C318" t="n">
-        <v> 1</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s">
-        <v>135</v>
-      </c>
-      <c r="B319" t="s">
-        <v>56</v>
-      </c>
-      <c r="C319" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="s">
-        <v>135</v>
-      </c>
-      <c r="B320" t="s">
-        <v>80</v>
-      </c>
-      <c r="C320" t="n">
-        <v> 2</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s">
-        <v>135</v>
-      </c>
-      <c r="B321" t="s">
-        <v>58</v>
-      </c>
-      <c r="C321" t="n">
-        <v> 8</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>135</v>
-      </c>
-      <c r="B322" t="s">
-        <v>59</v>
-      </c>
-      <c r="C322" t="n">
-        <v> 5</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>135</v>
-      </c>
-      <c r="B323" t="s">
-        <v>60</v>
-      </c>
-      <c r="C323" t="n">
-        <v> 2</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s">
-        <v>135</v>
-      </c>
-      <c r="B324" t="s">
-        <v>61</v>
-      </c>
-      <c r="C324" t="n">
         <v> 9</v>
       </c>
     </row>

--- a/data/06 impact country numbers per year per country.xlsx
+++ b/data/06 impact country numbers per year per country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>project_year</t>
   </si>
@@ -275,12 +275,6 @@
     <t>New Zealand</t>
   </si>
   <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -309,6 +303,9 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Fiji</t>
   </si>
   <si>
     <t>Guinea</t>
@@ -701,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="3">
@@ -877,7 +874,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -899,7 +896,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -1207,7 +1204,7 @@
         <v>50</v>
       </c>
       <c r="C48" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="49">
@@ -1394,7 +1391,7 @@
         <v>13</v>
       </c>
       <c r="C65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -1526,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="C77" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -1592,7 +1589,7 @@
         <v>64</v>
       </c>
       <c r="C83" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="84">
@@ -1669,7 +1666,7 @@
         <v>40</v>
       </c>
       <c r="C90" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
@@ -1680,7 +1677,7 @@
         <v>68</v>
       </c>
       <c r="C91" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="92">
@@ -1922,7 +1919,7 @@
         <v>59</v>
       </c>
       <c r="C113" t="n">
-        <v> 7</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="114">
@@ -1930,10 +1927,10 @@
         <v>75</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v> 1</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="115">
@@ -1941,7 +1938,7 @@
         <v>75</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="n">
         <v> 5</v>
@@ -1952,10 +1949,10 @@
         <v>75</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C116" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="117">
@@ -1963,10 +1960,10 @@
         <v>75</v>
       </c>
       <c r="B117" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C117" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="118">
@@ -1974,10 +1971,10 @@
         <v>75</v>
       </c>
       <c r="B118" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C118" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="119">
@@ -1985,10 +1982,10 @@
         <v>75</v>
       </c>
       <c r="B119" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="C119" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="120">
@@ -1996,10 +1993,10 @@
         <v>75</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C120" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="121">
@@ -2007,10 +2004,10 @@
         <v>75</v>
       </c>
       <c r="B121" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C121" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="122">
@@ -2018,10 +2015,10 @@
         <v>75</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C122" t="n">
-        <v> 5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
@@ -2029,10 +2026,10 @@
         <v>75</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="C123" t="n">
-        <v>22</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="124">
@@ -2040,7 +2037,7 @@
         <v>75</v>
       </c>
       <c r="B124" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C124" t="n">
         <v> 1</v>
@@ -2051,10 +2048,10 @@
         <v>75</v>
       </c>
       <c r="B125" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C125" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="126">
@@ -2062,10 +2059,10 @@
         <v>75</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C126" t="n">
-        <v> 9</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="127">
@@ -2073,10 +2070,10 @@
         <v>75</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C127" t="n">
-        <v> 7</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="128">
@@ -2084,10 +2081,10 @@
         <v>75</v>
       </c>
       <c r="B128" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C128" t="n">
-        <v> 5</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="129">
@@ -2095,10 +2092,10 @@
         <v>75</v>
       </c>
       <c r="B129" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C129" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="130">
@@ -2106,10 +2103,10 @@
         <v>75</v>
       </c>
       <c r="B130" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C130" t="n">
-        <v> 1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131">
@@ -2117,10 +2114,10 @@
         <v>75</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C131" t="n">
-        <v>15</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="132">
@@ -2128,10 +2125,10 @@
         <v>75</v>
       </c>
       <c r="B132" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C132" t="n">
-        <v> 1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133">
@@ -2139,10 +2136,10 @@
         <v>75</v>
       </c>
       <c r="B133" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C133" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
@@ -2150,10 +2147,10 @@
         <v>75</v>
       </c>
       <c r="B134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C134" t="n">
-        <v>10</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="135">
@@ -2161,10 +2158,10 @@
         <v>75</v>
       </c>
       <c r="B135" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C135" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="136">
@@ -2172,10 +2169,10 @@
         <v>75</v>
       </c>
       <c r="B136" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C136" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="137">
@@ -2183,10 +2180,10 @@
         <v>75</v>
       </c>
       <c r="B137" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="C137" t="n">
-        <v> 4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138">
@@ -2194,10 +2191,10 @@
         <v>75</v>
       </c>
       <c r="B138" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C138" t="n">
-        <v>59</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="139">
@@ -2205,10 +2202,10 @@
         <v>75</v>
       </c>
       <c r="B139" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C139" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="140">
@@ -2216,10 +2213,10 @@
         <v>75</v>
       </c>
       <c r="B140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C140" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="141">
@@ -2227,7 +2224,7 @@
         <v>75</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C141" t="n">
         <v> 1</v>
@@ -2238,10 +2235,10 @@
         <v>75</v>
       </c>
       <c r="B142" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C142" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="143">
@@ -2249,10 +2246,10 @@
         <v>75</v>
       </c>
       <c r="B143" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C143" t="n">
-        <v> 3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
@@ -2260,10 +2257,10 @@
         <v>75</v>
       </c>
       <c r="B144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C144" t="n">
-        <v>13</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="145">
@@ -2271,7 +2268,7 @@
         <v>75</v>
       </c>
       <c r="B145" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C145" t="n">
         <v> 1</v>
@@ -2282,7 +2279,7 @@
         <v>75</v>
       </c>
       <c r="B146" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C146" t="n">
         <v> 1</v>
@@ -2293,7 +2290,7 @@
         <v>75</v>
       </c>
       <c r="B147" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C147" t="n">
         <v> 1</v>
@@ -2304,10 +2301,10 @@
         <v>75</v>
       </c>
       <c r="B148" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C148" t="n">
-        <v> 1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149">
@@ -2315,10 +2312,10 @@
         <v>75</v>
       </c>
       <c r="B149" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C149" t="n">
-        <v> 9</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="150">
@@ -2326,10 +2323,10 @@
         <v>75</v>
       </c>
       <c r="B150" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C150" t="n">
-        <v> 3</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="151">
@@ -2337,10 +2334,10 @@
         <v>75</v>
       </c>
       <c r="B151" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C151" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="152">
@@ -2348,10 +2345,10 @@
         <v>75</v>
       </c>
       <c r="B152" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C152" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="153">
@@ -2359,10 +2356,10 @@
         <v>75</v>
       </c>
       <c r="B153" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C153" t="n">
-        <v> 3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154">
@@ -2370,10 +2367,10 @@
         <v>75</v>
       </c>
       <c r="B154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C154" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155">
@@ -2381,10 +2378,10 @@
         <v>75</v>
       </c>
       <c r="B155" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C155" t="n">
-        <v> 1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156">
@@ -2392,10 +2389,10 @@
         <v>75</v>
       </c>
       <c r="B156" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C156" t="n">
-        <v>19</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="157">
@@ -2403,10 +2400,10 @@
         <v>75</v>
       </c>
       <c r="B157" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C157" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
@@ -2414,10 +2411,10 @@
         <v>75</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C158" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="159">
@@ -2425,10 +2422,10 @@
         <v>75</v>
       </c>
       <c r="B159" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C159" t="n">
-        <v>16</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="160">
@@ -2436,7 +2433,7 @@
         <v>75</v>
       </c>
       <c r="B160" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C160" t="n">
         <v> 1</v>
@@ -2447,10 +2444,10 @@
         <v>75</v>
       </c>
       <c r="B161" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C161" t="n">
-        <v> 9</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="162">
@@ -2458,10 +2455,10 @@
         <v>75</v>
       </c>
       <c r="B162" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C162" t="n">
-        <v> 1</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="163">
@@ -2469,10 +2466,10 @@
         <v>75</v>
       </c>
       <c r="B163" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C163" t="n">
-        <v> 1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164">
@@ -2480,10 +2477,10 @@
         <v>75</v>
       </c>
       <c r="B164" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C164" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="165">
@@ -2491,10 +2488,10 @@
         <v>75</v>
       </c>
       <c r="B165" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C165" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="166">
@@ -2502,10 +2499,10 @@
         <v>75</v>
       </c>
       <c r="B166" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C166" t="n">
-        <v> 4</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="167">
@@ -2513,10 +2510,10 @@
         <v>75</v>
       </c>
       <c r="B167" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C167" t="n">
-        <v>22</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="168">
@@ -2535,10 +2532,10 @@
         <v>75</v>
       </c>
       <c r="B169" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C169" t="n">
-        <v> 4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170">
@@ -2546,7 +2543,7 @@
         <v>75</v>
       </c>
       <c r="B170" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C170" t="n">
         <v> 2</v>
@@ -2557,7 +2554,7 @@
         <v>75</v>
       </c>
       <c r="B171" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C171" t="n">
         <v> 1</v>
@@ -2568,10 +2565,10 @@
         <v>75</v>
       </c>
       <c r="B172" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C172" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="173">
@@ -2579,10 +2576,10 @@
         <v>75</v>
       </c>
       <c r="B173" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C173" t="n">
-        <v>25</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="174">
@@ -2590,10 +2587,10 @@
         <v>75</v>
       </c>
       <c r="B174" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C174" t="n">
-        <v> 2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="175">
@@ -2601,7 +2598,7 @@
         <v>75</v>
       </c>
       <c r="B175" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C175" t="n">
         <v> 1</v>
@@ -2612,10 +2609,10 @@
         <v>75</v>
       </c>
       <c r="B176" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C176" t="n">
-        <v> 2</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="177">
@@ -2623,10 +2620,10 @@
         <v>75</v>
       </c>
       <c r="B177" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C177" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="178">
@@ -2634,10 +2631,10 @@
         <v>75</v>
       </c>
       <c r="B178" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C178" t="n">
-        <v>74</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="179">
@@ -2645,128 +2642,128 @@
         <v>75</v>
       </c>
       <c r="B179" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C179" t="n">
-        <v> 1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B180" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C180" t="n">
-        <v> 8</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B181" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C181" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B182" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C182" t="n">
-        <v> 6</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B183" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C183" t="n">
-        <v>19</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B184" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="C184" t="n">
-        <v>10</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C185" t="n">
-        <v> 2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B186" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C186" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B187" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="C187" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C188" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B189" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C189" t="n">
-        <v> 1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C190" t="n">
         <v>10</v>
@@ -2774,32 +2771,32 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B191" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="C191" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B192" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C192" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B193" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C193" t="n">
         <v> 1</v>
@@ -2807,428 +2804,428 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C194" t="n">
-        <v>13</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C195" t="n">
-        <v>10</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C196" t="n">
-        <v> 3</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="C197" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="C198" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B199" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="C199" t="n">
-        <v> 1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B200" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C200" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B201" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C201" t="n">
-        <v> 3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B202" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C202" t="n">
-        <v> 2</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B203" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C203" t="n">
-        <v>11</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B204" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="C204" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B205" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C205" t="n">
-        <v>43</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B206" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="C206" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B207" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C207" t="n">
-        <v> 2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B208" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C208" t="n">
-        <v> 2</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B209" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C209" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B210" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C210" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B211" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C211" t="n">
-        <v>34</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B212" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C212" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B213" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C213" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B214" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C214" t="n">
-        <v> 3</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B215" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C215" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B216" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C216" t="n">
-        <v> 1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B217" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C217" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B218" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C218" t="n">
-        <v> 9</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B219" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C219" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B220" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C220" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B221" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="C221" t="n">
-        <v> 2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B222" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="C222" t="n">
-        <v> 4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B223" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C223" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B224" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C224" t="n">
-        <v>36</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B225" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C225" t="n">
-        <v>17</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B226" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C226" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B227" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C227" t="n">
-        <v> 3</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B228" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C228" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B229" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C229" t="n">
-        <v> 1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B230" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C230" t="n">
-        <v>11</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B231" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C231" t="n">
-        <v> 2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B232" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C232" t="n">
         <v> 1</v>
@@ -3236,65 +3233,65 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B233" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C233" t="n">
-        <v>20</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B234" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C234" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B235" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C235" t="n">
-        <v>12</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B236" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C236" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B237" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C237" t="n">
-        <v> 2</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B238" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C238" t="n">
         <v> 1</v>
@@ -3302,43 +3299,43 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B239" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C239" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B240" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C240" t="n">
-        <v> 8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B241" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C241" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B242" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C242" t="n">
         <v> 1</v>
@@ -3346,32 +3343,32 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B243" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C243" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B244" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C244" t="n">
-        <v>32</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B245" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C245" t="n">
         <v> 1</v>
@@ -3379,10 +3376,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B246" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C246" t="n">
         <v> 1</v>
@@ -3390,43 +3387,43 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B247" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C247" t="n">
-        <v> 3</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B248" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C248" t="n">
-        <v> 4</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B249" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="C249" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B250" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C250" t="n">
         <v> 1</v>
@@ -3434,54 +3431,54 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B251" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C251" t="n">
-        <v> 5</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B252" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C252" t="n">
-        <v> 8</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C253" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C254" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B255" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C255" t="n">
         <v> 1</v>
@@ -3489,43 +3486,43 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C256" t="n">
-        <v> 7</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B257" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="C257" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B258" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C258" t="n">
-        <v> 1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B259" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="C259" t="n">
         <v> 1</v>
@@ -3533,10 +3530,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B260" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C260" t="n">
         <v> 1</v>
@@ -3544,10 +3541,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B261" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C261" t="n">
         <v> 2</v>
@@ -3555,10 +3552,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B262" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C262" t="n">
         <v> 1</v>
@@ -3566,21 +3563,21 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B263" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C263" t="n">
-        <v>10</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B264" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="C264" t="n">
         <v> 1</v>
@@ -3588,32 +3585,32 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B265" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C265" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B266" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C266" t="n">
-        <v> 2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B267" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C267" t="n">
         <v> 1</v>
@@ -3621,98 +3618,98 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B268" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C268" t="n">
-        <v> 2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B269" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="C269" t="n">
-        <v> 3</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B270" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C270" t="n">
-        <v>11</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B271" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="C271" t="n">
-        <v> 1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B272" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C272" t="n">
-        <v>34</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B273" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C273" t="n">
-        <v> 9</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B274" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C274" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B275" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C275" t="n">
-        <v>18</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B276" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C276" t="n">
         <v> 1</v>
@@ -3720,10 +3717,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B277" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="C277" t="n">
         <v> 2</v>
@@ -3731,65 +3728,65 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B278" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C278" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B279" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C279" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B280" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="C280" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B281" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C281" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B282" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C282" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B283" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C283" t="n">
         <v> 1</v>
@@ -3797,109 +3794,109 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B284" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="C284" t="n">
-        <v> 1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B285" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C285" t="n">
-        <v> 1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B286" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C286" t="n">
-        <v> 5</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B287" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C287" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B288" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="C288" t="n">
-        <v>37</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B289" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C289" t="n">
-        <v>15</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B290" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C290" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B291" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C291" t="n">
-        <v> 5</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B292" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="C292" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B293" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C293" t="n">
         <v> 4</v>
@@ -3907,10 +3904,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B294" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C294" t="n">
         <v> 1</v>
@@ -3918,144 +3915,89 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B295" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C295" t="n">
-        <v> 3</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B296" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C296" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B297" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C297" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B298" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C298" t="n">
-        <v> 1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B299" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C299" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B300" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C300" t="n">
-        <v> 8</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B301" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C301" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B302" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C302" t="n">
-        <v> 1</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s">
-        <v>106</v>
-      </c>
-      <c r="B303" t="s">
-        <v>55</v>
-      </c>
-      <c r="C303" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s">
-        <v>106</v>
-      </c>
-      <c r="B304" t="s">
-        <v>73</v>
-      </c>
-      <c r="C304" t="n">
-        <v> 2</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s">
-        <v>106</v>
-      </c>
-      <c r="B305" t="s">
-        <v>57</v>
-      </c>
-      <c r="C305" t="n">
-        <v> 6</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s">
-        <v>106</v>
-      </c>
-      <c r="B306" t="s">
-        <v>58</v>
-      </c>
-      <c r="C306" t="n">
-        <v> 2</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s">
-        <v>106</v>
-      </c>
-      <c r="B307" t="s">
-        <v>59</v>
-      </c>
-      <c r="C307" t="n">
         <v> 9</v>
       </c>
     </row>

--- a/data/06 impact country numbers per year per country.xlsx
+++ b/data/06 impact country numbers per year per country.xlsx
@@ -248,13 +248,13 @@
     <t>Burkina Faso</t>
   </si>
   <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
     <t>Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Congo</t>
   </si>
   <si>
     <t>France</t>
@@ -1993,10 +1993,10 @@
         <v>75</v>
       </c>
       <c r="B120" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C120" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="121">
@@ -2004,10 +2004,10 @@
         <v>75</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C121" t="n">
-        <v> 5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
@@ -2015,10 +2015,10 @@
         <v>75</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C122" t="n">
-        <v>22</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="123">
@@ -2037,10 +2037,10 @@
         <v>75</v>
       </c>
       <c r="B124" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C124" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="125">
@@ -2048,10 +2048,10 @@
         <v>75</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C125" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="126">
@@ -2741,10 +2741,10 @@
         <v>91</v>
       </c>
       <c r="B188" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C188" t="n">
-        <v> 1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189">
@@ -2752,10 +2752,10 @@
         <v>91</v>
       </c>
       <c r="B189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C189" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
@@ -2763,10 +2763,10 @@
         <v>91</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C190" t="n">
-        <v>10</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="191">
@@ -2774,10 +2774,10 @@
         <v>91</v>
       </c>
       <c r="B191" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C191" t="n">
-        <v> 3</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="192">
@@ -2785,10 +2785,10 @@
         <v>91</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C192" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="193">
@@ -2796,7 +2796,7 @@
         <v>91</v>
       </c>
       <c r="B193" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="C193" t="n">
         <v> 1</v>
@@ -2807,7 +2807,7 @@
         <v>91</v>
       </c>
       <c r="B194" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C194" t="n">
         <v> 1</v>

--- a/data/06 impact country numbers per year per country.xlsx
+++ b/data/06 impact country numbers per year per country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>project_year</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>2011</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -698,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="3">
@@ -709,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v> 3</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="5">
@@ -731,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="6">
@@ -775,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v> 1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -786,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -797,7 +794,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="12">
@@ -819,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="14">
@@ -830,7 +827,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v> 7</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="15">
@@ -841,7 +838,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="16">
@@ -852,7 +849,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v> 1</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="17">
@@ -863,7 +860,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v> 6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -874,7 +871,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -885,7 +882,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -896,7 +893,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="21">
@@ -907,7 +904,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="22">
@@ -929,7 +926,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v> 1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -940,7 +937,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>39</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="25">
@@ -951,7 +948,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="26">
@@ -962,7 +959,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="27">
@@ -973,7 +970,7 @@
         <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="28">
@@ -995,7 +992,7 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="30">
@@ -1017,7 +1014,7 @@
         <v>33</v>
       </c>
       <c r="C31" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="32">
@@ -1050,7 +1047,7 @@
         <v>36</v>
       </c>
       <c r="C34" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="35">
@@ -1061,7 +1058,7 @@
         <v>37</v>
       </c>
       <c r="C35" t="n">
-        <v> 3</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="36">
@@ -1072,7 +1069,7 @@
         <v>38</v>
       </c>
       <c r="C36" t="n">
-        <v> 2</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="37">
@@ -1083,7 +1080,7 @@
         <v>39</v>
       </c>
       <c r="C37" t="n">
-        <v> 7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
@@ -1094,7 +1091,7 @@
         <v>40</v>
       </c>
       <c r="C38" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -1105,7 +1102,7 @@
         <v>41</v>
       </c>
       <c r="C39" t="n">
-        <v>16</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="40">
@@ -1116,7 +1113,7 @@
         <v>42</v>
       </c>
       <c r="C40" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="41">
@@ -1127,7 +1124,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="n">
-        <v> 1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -1138,7 +1135,7 @@
         <v>44</v>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -1149,7 +1146,7 @@
         <v>45</v>
       </c>
       <c r="C43" t="n">
-        <v>15</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="44">
@@ -1160,7 +1157,7 @@
         <v>46</v>
       </c>
       <c r="C44" t="n">
-        <v> 1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1171,7 +1168,7 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>11</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="46">
@@ -1182,7 +1179,7 @@
         <v>48</v>
       </c>
       <c r="C46" t="n">
-        <v> 1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1193,7 +1190,7 @@
         <v>49</v>
       </c>
       <c r="C47" t="n">
-        <v>12</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="48">
@@ -1204,7 +1201,7 @@
         <v>50</v>
       </c>
       <c r="C48" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="49">
@@ -1215,7 +1212,7 @@
         <v>51</v>
       </c>
       <c r="C49" t="n">
-        <v> 1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -1226,7 +1223,7 @@
         <v>52</v>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="51">
@@ -1237,7 +1234,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="52">
@@ -1248,7 +1245,7 @@
         <v>54</v>
       </c>
       <c r="C52" t="n">
-        <v> 3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
@@ -1259,7 +1256,7 @@
         <v>55</v>
       </c>
       <c r="C53" t="n">
-        <v>27</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="54">
@@ -1281,7 +1278,7 @@
         <v>57</v>
       </c>
       <c r="C55" t="n">
-        <v> 2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -1292,34 +1289,34 @@
         <v>58</v>
       </c>
       <c r="C56" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -1330,10 +1327,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="n">
         <v> 1</v>
@@ -1341,10 +1338,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
       </c>
       <c r="C61" t="n">
         <v> 1</v>
@@ -1352,18 +1349,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C62" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -1374,128 +1371,128 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
       </c>
       <c r="C64" t="n">
-        <v> 2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="C65" t="n">
-        <v>12</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="n">
-        <v> 3</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
         <v>17</v>
       </c>
       <c r="C68" t="n">
-        <v> 4</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
       </c>
       <c r="C69" t="n">
-        <v> 7</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
       </c>
       <c r="C70" t="n">
-        <v> 4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
       </c>
       <c r="C71" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
       </c>
       <c r="C72" t="n">
-        <v>30</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C73" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C74" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
         <v>23</v>
@@ -1506,32 +1503,32 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C76" t="n">
-        <v> 2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C77" t="n">
-        <v>31</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C78" t="n">
         <v> 1</v>
@@ -1539,76 +1536,76 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
         <v>27</v>
       </c>
       <c r="C79" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C80" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C81" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C82" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C83" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C84" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C85" t="n">
         <v> 1</v>
@@ -1616,197 +1613,197 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B86" t="s">
         <v>65</v>
       </c>
       <c r="C86" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C87" t="n">
-        <v> 2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C88" t="n">
-        <v>13</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C89" t="n">
-        <v> 1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B90" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C90" t="n">
-        <v>22</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B91" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C91" t="n">
-        <v> 1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B92" t="s">
         <v>41</v>
       </c>
       <c r="C92" t="n">
-        <v>10</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s">
         <v>42</v>
       </c>
       <c r="C93" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
         <v>43</v>
       </c>
       <c r="C94" t="n">
-        <v> 2</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
         <v>44</v>
       </c>
       <c r="C95" t="n">
-        <v> 7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C96" t="n">
-        <v>12</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C97" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B98" t="s">
         <v>46</v>
       </c>
       <c r="C98" t="n">
-        <v> 3</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C99" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B100" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C100" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B101" t="s">
         <v>48</v>
       </c>
       <c r="C101" t="n">
-        <v> 2</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B102" t="s">
         <v>49</v>
       </c>
       <c r="C102" t="n">
-        <v> 7</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C103" t="n">
         <v> 3</v>
@@ -1814,109 +1811,109 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C104" t="n">
-        <v> 3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B105" t="s">
         <v>52</v>
       </c>
       <c r="C105" t="n">
-        <v>14</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C106" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C107" t="n">
-        <v> 1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B108" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C108" t="n">
-        <v>33</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B109" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C109" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C110" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B111" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C111" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B112" t="s">
         <v>58</v>
       </c>
       <c r="C112" t="n">
-        <v> 3</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C113" t="n">
         <v> 6</v>
@@ -1924,95 +1921,95 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="n">
-        <v> 6</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>74</v>
+      </c>
+      <c r="B115" t="s">
         <v>75</v>
       </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
       <c r="C115" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B116" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C116" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C117" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B118" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C118" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
       </c>
       <c r="C119" t="n">
-        <v> 3</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B120" t="s">
         <v>12</v>
       </c>
       <c r="C120" t="n">
-        <v> 5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C121" t="n">
-        <v>22</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B122" t="s">
         <v>78</v>
@@ -2023,194 +2020,194 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B123" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C123" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C124" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B125" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C125" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B126" t="s">
         <v>18</v>
       </c>
       <c r="C126" t="n">
-        <v> 7</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C127" t="n">
-        <v> 5</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B128" t="s">
         <v>81</v>
       </c>
       <c r="C128" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B129" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C129" t="n">
-        <v> 1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="C130" t="n">
-        <v>15</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B131" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C131" t="n">
-        <v> 1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B132" t="s">
         <v>21</v>
       </c>
       <c r="C132" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B133" t="s">
         <v>22</v>
       </c>
       <c r="C133" t="n">
-        <v>10</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B134" t="s">
         <v>23</v>
       </c>
       <c r="C134" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B135" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C135" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C136" t="n">
-        <v> 4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B137" t="s">
         <v>26</v>
       </c>
       <c r="C137" t="n">
-        <v>59</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B138" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C138" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B139" t="s">
         <v>30</v>
       </c>
       <c r="C139" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B140" t="s">
         <v>31</v>
@@ -2221,43 +2218,43 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B141" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C141" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B142" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C142" t="n">
-        <v> 3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B143" t="s">
         <v>33</v>
       </c>
       <c r="C143" t="n">
-        <v>13</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B144" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C144" t="n">
         <v> 1</v>
@@ -2265,10 +2262,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B145" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C145" t="n">
         <v> 1</v>
@@ -2276,10 +2273,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C146" t="n">
         <v> 1</v>
@@ -2287,142 +2284,142 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B147" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C147" t="n">
-        <v> 1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B148" t="s">
         <v>65</v>
       </c>
       <c r="C148" t="n">
-        <v>10</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B149" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C149" t="n">
-        <v> 3</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C150" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B151" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C151" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B152" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C152" t="n">
-        <v> 3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B153" t="s">
         <v>40</v>
       </c>
       <c r="C153" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B154" t="s">
         <v>41</v>
       </c>
       <c r="C154" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B155" t="s">
         <v>42</v>
       </c>
       <c r="C155" t="n">
-        <v>13</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B156" t="s">
         <v>43</v>
       </c>
       <c r="C156" t="n">
-        <v> 1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B157" t="s">
         <v>44</v>
       </c>
       <c r="C157" t="n">
-        <v>16</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B158" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C158" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B159" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C159" t="n">
         <v> 1</v>
@@ -2430,18 +2427,18 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B160" t="s">
         <v>46</v>
       </c>
       <c r="C160" t="n">
-        <v> 1</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B161" t="s">
         <v>47</v>
@@ -2452,62 +2449,62 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B162" t="s">
         <v>48</v>
       </c>
       <c r="C162" t="n">
-        <v> 6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B163" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C163" t="n">
-        <v>23</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B164" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C164" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B165" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C165" t="n">
-        <v> 4</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B166" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C166" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B167" t="s">
         <v>88</v>
@@ -2518,54 +2515,54 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B168" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C168" t="n">
-        <v> 1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B169" t="s">
         <v>52</v>
       </c>
       <c r="C169" t="n">
-        <v>25</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B170" t="s">
         <v>53</v>
       </c>
       <c r="C170" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B171" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C171" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B172" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C172" t="n">
         <v> 2</v>
@@ -2573,219 +2570,219 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B173" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C173" t="n">
-        <v> 2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B174" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C174" t="n">
-        <v>74</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B175" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C175" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B176" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C176" t="n">
-        <v> 8</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B177" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C177" t="n">
-        <v> 3</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B178" t="s">
         <v>58</v>
       </c>
       <c r="C178" t="n">
-        <v> 6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B179" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C179" t="n">
-        <v>20</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
+        <v>90</v>
+      </c>
+      <c r="B180" t="s">
         <v>91</v>
       </c>
-      <c r="B180" t="s">
-        <v>5</v>
-      </c>
       <c r="C180" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B181" t="s">
         <v>92</v>
       </c>
       <c r="C181" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B182" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C182" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C183" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B184" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="C184" t="n">
-        <v> 1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C185" t="n">
-        <v>10</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B186" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C186" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
       </c>
       <c r="C187" t="n">
-        <v> 1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B188" t="s">
         <v>12</v>
       </c>
       <c r="C188" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B189" t="s">
         <v>13</v>
       </c>
       <c r="C189" t="n">
-        <v>10</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C190" t="n">
-        <v> 3</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B191" t="s">
         <v>16</v>
       </c>
       <c r="C191" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B192" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C192" t="n">
         <v> 1</v>
@@ -2793,10 +2790,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B193" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C193" t="n">
         <v> 1</v>
@@ -2804,109 +2801,109 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B194" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C194" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B195" t="s">
         <v>18</v>
       </c>
       <c r="C195" t="n">
-        <v> 2</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B196" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C196" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B197" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C197" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B198" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C198" t="n">
-        <v> 2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B199" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C199" t="n">
-        <v>11</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B200" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="C200" t="n">
-        <v> 1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B201" t="s">
         <v>21</v>
       </c>
       <c r="C201" t="n">
-        <v>43</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B202" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C202" t="n">
-        <v> 8</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B203" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C203" t="n">
         <v> 2</v>
@@ -2914,87 +2911,87 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B204" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C204" t="n">
-        <v> 2</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B205" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C205" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B206" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="C206" t="n">
-        <v> 1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B207" t="s">
         <v>26</v>
       </c>
       <c r="C207" t="n">
-        <v>35</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B208" t="s">
         <v>27</v>
       </c>
       <c r="C208" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B209" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C209" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B210" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C210" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B211" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C211" t="n">
         <v> 1</v>
@@ -3002,296 +2999,296 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B212" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C212" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B213" t="s">
         <v>33</v>
       </c>
       <c r="C213" t="n">
-        <v> 7</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B214" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C214" t="n">
-        <v> 9</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B215" t="s">
         <v>38</v>
       </c>
       <c r="C215" t="n">
-        <v> 8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B216" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C216" t="n">
-        <v>14</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B217" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C217" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B218" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C218" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B219" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C219" t="n">
-        <v> 1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B220" t="s">
         <v>40</v>
       </c>
       <c r="C220" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B221" t="s">
         <v>41</v>
       </c>
       <c r="C221" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B222" t="s">
         <v>42</v>
       </c>
       <c r="C222" t="n">
-        <v>10</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B223" t="s">
         <v>43</v>
       </c>
       <c r="C223" t="n">
-        <v> 3</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B224" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C224" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B225" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C225" t="n">
-        <v> 1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B226" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C226" t="n">
-        <v>11</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B227" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C227" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B228" t="s">
         <v>46</v>
       </c>
       <c r="C228" t="n">
-        <v> 1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B229" t="s">
         <v>47</v>
       </c>
       <c r="C229" t="n">
-        <v>20</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B230" t="s">
         <v>48</v>
       </c>
       <c r="C230" t="n">
-        <v> 3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B231" t="s">
         <v>49</v>
       </c>
       <c r="C231" t="n">
-        <v>12</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B232" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C232" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B233" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C233" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B234" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C234" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B235" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C235" t="n">
-        <v> 2</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B236" t="s">
         <v>52</v>
       </c>
       <c r="C236" t="n">
-        <v> 8</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B237" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C237" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B238" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C238" t="n">
         <v> 1</v>
@@ -3299,32 +3296,32 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B239" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="C239" t="n">
-        <v> 1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B240" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C240" t="n">
-        <v>32</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B241" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C241" t="n">
         <v> 1</v>
@@ -3332,43 +3329,43 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B242" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C242" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B243" t="s">
         <v>56</v>
       </c>
       <c r="C243" t="n">
-        <v> 3</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B244" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C244" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B245" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C245" t="n">
         <v> 1</v>
@@ -3376,29 +3373,29 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B246" t="s">
         <v>58</v>
       </c>
       <c r="C246" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B247" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C247" t="n">
-        <v> 5</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -3409,54 +3406,54 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
+        <v>104</v>
+      </c>
+      <c r="B249" t="s">
         <v>105</v>
       </c>
-      <c r="B249" t="s">
-        <v>6</v>
-      </c>
       <c r="C249" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B250" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C250" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C251" t="n">
-        <v> 7</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B252" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C252" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B253" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C253" t="n">
         <v> 1</v>
@@ -3464,10 +3461,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B254" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C254" t="n">
         <v> 1</v>
@@ -3475,54 +3472,54 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B255" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C255" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B256" t="s">
         <v>11</v>
       </c>
       <c r="C256" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B257" t="s">
         <v>12</v>
       </c>
       <c r="C257" t="n">
-        <v> 1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B258" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C258" t="n">
-        <v>10</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B259" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="C259" t="n">
         <v> 1</v>
@@ -3530,208 +3527,208 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B260" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="C260" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B261" t="s">
         <v>17</v>
       </c>
       <c r="C261" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B262" t="s">
         <v>18</v>
       </c>
       <c r="C262" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B263" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C263" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B264" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C264" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B265" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="C265" t="n">
-        <v> 3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B266" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C266" t="n">
-        <v>12</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B267" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="C267" t="n">
-        <v> 1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B268" t="s">
         <v>21</v>
       </c>
       <c r="C268" t="n">
-        <v>35</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B269" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="C269" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B270" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C270" t="n">
-        <v> 1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B271" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C271" t="n">
-        <v>18</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B272" t="s">
         <v>29</v>
       </c>
       <c r="C272" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B273" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C273" t="n">
-        <v> 2</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B274" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C274" t="n">
-        <v> 4</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B275" t="s">
         <v>33</v>
       </c>
       <c r="C275" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B276" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="C276" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B277" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="C277" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B278" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C278" t="n">
         <v> 1</v>
@@ -3739,197 +3736,197 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B279" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C279" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B280" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C280" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B281" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C281" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B282" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C282" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B283" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="C283" t="n">
-        <v> 1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B284" t="s">
         <v>40</v>
       </c>
       <c r="C284" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B285" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C285" t="n">
-        <v>15</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B286" t="s">
         <v>44</v>
       </c>
       <c r="C286" t="n">
-        <v> 7</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B287" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C287" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B288" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="C288" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B289" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C289" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B290" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C290" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B291" t="s">
         <v>48</v>
       </c>
       <c r="C291" t="n">
-        <v> 3</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B292" t="s">
         <v>49</v>
       </c>
       <c r="C292" t="n">
-        <v> 7</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B293" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C293" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B294" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C294" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B295" t="s">
         <v>52</v>
       </c>
       <c r="C295" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B296" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C296" t="n">
         <v> 1</v>
@@ -3937,67 +3934,56 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B297" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="C297" t="n">
-        <v> 1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B298" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C298" t="n">
-        <v>32</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B299" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C299" t="n">
-        <v> 2</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B300" t="s">
         <v>57</v>
       </c>
       <c r="C300" t="n">
-        <v> 6</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B301" t="s">
         <v>58</v>
       </c>
       <c r="C301" t="n">
-        <v> 2</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s">
-        <v>105</v>
-      </c>
-      <c r="B302" t="s">
-        <v>59</v>
-      </c>
-      <c r="C302" t="n">
         <v> 9</v>
       </c>
     </row>

--- a/data/06 impact country numbers per year per country.xlsx
+++ b/data/06 impact country numbers per year per country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>project_year</t>
   </si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>Armenia</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
   </si>
   <si>
     <t>Benin</t>
@@ -2114,7 +2111,7 @@
         <v>20</v>
       </c>
       <c r="C131" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132">
@@ -2169,7 +2166,7 @@
         <v>25</v>
       </c>
       <c r="C136" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137">
@@ -2345,7 +2342,7 @@
         <v>39</v>
       </c>
       <c r="C152" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153">
@@ -2455,7 +2452,7 @@
         <v>48</v>
       </c>
       <c r="C162" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163">
@@ -2521,7 +2518,7 @@
         <v>51</v>
       </c>
       <c r="C168" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169">
@@ -2576,7 +2573,7 @@
         <v>54</v>
       </c>
       <c r="C173" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="174">
@@ -2642,7 +2639,7 @@
         <v>4</v>
       </c>
       <c r="C179" t="n">
-        <v> 3</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="180">
@@ -2664,7 +2661,7 @@
         <v>92</v>
       </c>
       <c r="C181" t="n">
-        <v> 4</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="182">
@@ -2675,7 +2672,7 @@
         <v>5</v>
       </c>
       <c r="C182" t="n">
-        <v> 6</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="183">
@@ -2683,10 +2680,10 @@
         <v>90</v>
       </c>
       <c r="B183" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="C183" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="184">
@@ -2694,10 +2691,10 @@
         <v>90</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C184" t="n">
-        <v>10</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="185">
@@ -2705,10 +2702,10 @@
         <v>90</v>
       </c>
       <c r="B185" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="C185" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="186">
@@ -2716,10 +2713,10 @@
         <v>90</v>
       </c>
       <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" t="n">
         <v>10</v>
-      </c>
-      <c r="C186" t="n">
-        <v> 1</v>
       </c>
     </row>
     <row r="187">
@@ -2727,10 +2724,10 @@
         <v>90</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C187" t="n">
-        <v>14</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="188">
@@ -2738,10 +2735,10 @@
         <v>90</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C188" t="n">
-        <v>10</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="189">
@@ -2749,10 +2746,10 @@
         <v>90</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C189" t="n">
-        <v> 3</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="190">
@@ -2760,10 +2757,10 @@
         <v>90</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C190" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="191">
@@ -2771,7 +2768,7 @@
         <v>90</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="C191" t="n">
         <v> 1</v>
@@ -2782,7 +2779,7 @@
         <v>90</v>
       </c>
       <c r="B192" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C192" t="n">
         <v> 1</v>
@@ -2793,10 +2790,10 @@
         <v>90</v>
       </c>
       <c r="B193" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C193" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="194">
@@ -2804,10 +2801,10 @@
         <v>90</v>
       </c>
       <c r="B194" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C194" t="n">
-        <v> 2</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="195">
@@ -2815,10 +2812,10 @@
         <v>90</v>
       </c>
       <c r="B195" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C195" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="196">
@@ -2826,10 +2823,10 @@
         <v>90</v>
       </c>
       <c r="B196" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C196" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="197">
@@ -2837,10 +2834,10 @@
         <v>90</v>
       </c>
       <c r="B197" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="C197" t="n">
-        <v> 2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198">
@@ -2848,10 +2845,10 @@
         <v>90</v>
       </c>
       <c r="B198" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C198" t="n">
-        <v>11</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="199">
@@ -2859,10 +2856,10 @@
         <v>90</v>
       </c>
       <c r="B199" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="C199" t="n">
-        <v> 1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="200">
@@ -2870,10 +2867,10 @@
         <v>90</v>
       </c>
       <c r="B200" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C200" t="n">
-        <v>43</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="201">
@@ -2881,10 +2878,10 @@
         <v>90</v>
       </c>
       <c r="B201" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C201" t="n">
-        <v> 8</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="202">
@@ -2892,7 +2889,7 @@
         <v>90</v>
       </c>
       <c r="B202" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C202" t="n">
         <v> 2</v>
@@ -2903,10 +2900,10 @@
         <v>90</v>
       </c>
       <c r="B203" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C203" t="n">
-        <v> 2</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="204">
@@ -2914,10 +2911,10 @@
         <v>90</v>
       </c>
       <c r="B204" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C204" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="205">
@@ -2925,10 +2922,10 @@
         <v>90</v>
       </c>
       <c r="B205" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C205" t="n">
-        <v> 1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="206">
@@ -2936,10 +2933,10 @@
         <v>90</v>
       </c>
       <c r="B206" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C206" t="n">
-        <v>35</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="207">
@@ -2947,10 +2944,10 @@
         <v>90</v>
       </c>
       <c r="B207" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C207" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="208">
@@ -2958,10 +2955,10 @@
         <v>90</v>
       </c>
       <c r="B208" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C208" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="209">
@@ -2969,10 +2966,10 @@
         <v>90</v>
       </c>
       <c r="B209" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C209" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="210">
@@ -2980,7 +2977,7 @@
         <v>90</v>
       </c>
       <c r="B210" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C210" t="n">
         <v> 1</v>
@@ -2991,10 +2988,10 @@
         <v>90</v>
       </c>
       <c r="B211" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C211" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="212">
@@ -3002,10 +2999,10 @@
         <v>90</v>
       </c>
       <c r="B212" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C212" t="n">
-        <v> 7</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="213">
@@ -3013,10 +3010,10 @@
         <v>90</v>
       </c>
       <c r="B213" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C213" t="n">
-        <v> 9</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="214">
@@ -3024,10 +3021,10 @@
         <v>90</v>
       </c>
       <c r="B214" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C214" t="n">
-        <v> 8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215">
@@ -3035,10 +3032,10 @@
         <v>90</v>
       </c>
       <c r="B215" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C215" t="n">
-        <v>14</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="216">
@@ -3046,7 +3043,7 @@
         <v>90</v>
       </c>
       <c r="B216" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C216" t="n">
         <v> 1</v>
@@ -3057,10 +3054,10 @@
         <v>90</v>
       </c>
       <c r="B217" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C217" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="218">
@@ -3068,10 +3065,10 @@
         <v>90</v>
       </c>
       <c r="B218" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C218" t="n">
-        <v> 1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219">
@@ -3079,10 +3076,10 @@
         <v>90</v>
       </c>
       <c r="B219" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C219" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220">
@@ -3090,10 +3087,10 @@
         <v>90</v>
       </c>
       <c r="B220" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C220" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221">
@@ -3101,10 +3098,10 @@
         <v>90</v>
       </c>
       <c r="B221" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C221" t="n">
-        <v>10</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="222">
@@ -3112,10 +3109,10 @@
         <v>90</v>
       </c>
       <c r="B222" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C222" t="n">
-        <v> 3</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="223">
@@ -3123,10 +3120,10 @@
         <v>90</v>
       </c>
       <c r="B223" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C223" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="224">
@@ -3134,10 +3131,10 @@
         <v>90</v>
       </c>
       <c r="B224" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="C224" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="225">
@@ -3145,10 +3142,10 @@
         <v>90</v>
       </c>
       <c r="B225" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C225" t="n">
-        <v>11</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="226">
@@ -3156,10 +3153,10 @@
         <v>90</v>
       </c>
       <c r="B226" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C226" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="227">
@@ -3167,10 +3164,10 @@
         <v>90</v>
       </c>
       <c r="B227" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C227" t="n">
-        <v> 1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228">
@@ -3178,10 +3175,10 @@
         <v>90</v>
       </c>
       <c r="B228" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C228" t="n">
-        <v>20</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="229">
@@ -3189,10 +3186,10 @@
         <v>90</v>
       </c>
       <c r="B229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C229" t="n">
-        <v> 3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230">
@@ -3200,10 +3197,10 @@
         <v>90</v>
       </c>
       <c r="B230" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C230" t="n">
-        <v>12</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="231">
@@ -3211,10 +3208,10 @@
         <v>90</v>
       </c>
       <c r="B231" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C231" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="232">
@@ -3222,10 +3219,10 @@
         <v>90</v>
       </c>
       <c r="B232" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C232" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="233">
@@ -3233,7 +3230,7 @@
         <v>90</v>
       </c>
       <c r="B233" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C233" t="n">
         <v> 1</v>
@@ -3244,10 +3241,10 @@
         <v>90</v>
       </c>
       <c r="B234" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C234" t="n">
-        <v> 2</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="235">
@@ -3255,10 +3252,10 @@
         <v>90</v>
       </c>
       <c r="B235" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C235" t="n">
-        <v> 8</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="236">
@@ -3266,10 +3263,10 @@
         <v>90</v>
       </c>
       <c r="B236" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C236" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="237">
@@ -3277,7 +3274,7 @@
         <v>90</v>
       </c>
       <c r="B237" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C237" t="n">
         <v> 1</v>
@@ -3288,10 +3285,10 @@
         <v>90</v>
       </c>
       <c r="B238" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C238" t="n">
-        <v> 1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="239">
@@ -3299,10 +3296,10 @@
         <v>90</v>
       </c>
       <c r="B239" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="C239" t="n">
-        <v>32</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="240">
@@ -3310,7 +3307,7 @@
         <v>90</v>
       </c>
       <c r="B240" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C240" t="n">
         <v> 1</v>
@@ -3321,10 +3318,10 @@
         <v>90</v>
       </c>
       <c r="B241" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C241" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="242">
@@ -3332,10 +3329,10 @@
         <v>90</v>
       </c>
       <c r="B242" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C242" t="n">
-        <v> 3</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="243">
@@ -3343,10 +3340,10 @@
         <v>90</v>
       </c>
       <c r="B243" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C243" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="244">
@@ -3354,7 +3351,7 @@
         <v>90</v>
       </c>
       <c r="B244" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C244" t="n">
         <v> 1</v>
@@ -3365,29 +3362,29 @@
         <v>90</v>
       </c>
       <c r="B245" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C245" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B246" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C246" t="n">
-        <v> 5</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B247" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C247" t="n">
         <v> 3</v>
@@ -3395,54 +3392,54 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
+        <v>103</v>
+      </c>
+      <c r="B248" t="s">
         <v>104</v>
       </c>
-      <c r="B248" t="s">
-        <v>5</v>
-      </c>
       <c r="C248" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B249" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C249" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C250" t="n">
-        <v> 7</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B251" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C251" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B252" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C252" t="n">
         <v> 1</v>
@@ -3450,10 +3447,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B253" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C253" t="n">
         <v> 1</v>
@@ -3461,54 +3458,54 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B254" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C254" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B255" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C255" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B256" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C256" t="n">
-        <v> 1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C257" t="n">
-        <v>10</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B258" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="C258" t="n">
         <v> 1</v>
@@ -3516,208 +3513,208 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B259" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="C259" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B260" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C260" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B261" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C261" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B262" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C262" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B263" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C263" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B264" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C264" t="n">
-        <v> 3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B265" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C265" t="n">
-        <v>12</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B266" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="C266" t="n">
-        <v> 1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B267" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C267" t="n">
-        <v>35</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B268" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C268" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B269" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C269" t="n">
-        <v> 1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B270" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C270" t="n">
-        <v>18</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B271" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C271" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B272" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C272" t="n">
-        <v> 2</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B273" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C273" t="n">
-        <v> 4</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B274" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C274" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B275" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="C275" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B276" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="C276" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B277" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C277" t="n">
         <v> 1</v>
@@ -3725,197 +3722,197 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B278" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C278" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B279" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C279" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B280" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C280" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B281" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C281" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B282" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="C282" t="n">
-        <v> 1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B283" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C283" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B284" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C284" t="n">
-        <v>15</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B285" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C285" t="n">
-        <v> 7</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B286" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C286" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B287" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="C287" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B288" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C288" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B289" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C289" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B290" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C290" t="n">
-        <v> 3</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B291" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C291" t="n">
-        <v> 7</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B292" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C292" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B293" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C293" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B294" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C294" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B295" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C295" t="n">
         <v> 1</v>
@@ -3923,67 +3920,56 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B296" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C296" t="n">
-        <v> 1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B297" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C297" t="n">
-        <v>32</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B298" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C298" t="n">
-        <v> 2</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B299" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C299" t="n">
-        <v> 6</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B300" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C300" t="n">
-        <v> 2</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s">
-        <v>104</v>
-      </c>
-      <c r="B301" t="s">
-        <v>58</v>
-      </c>
-      <c r="C301" t="n">
         <v> 9</v>
       </c>
     </row>
